--- a/Example/Project_E/UTILL/excel2json-master/SKILL_DATA.xlsx
+++ b/Example/Project_E/UTILL/excel2json-master/SKILL_DATA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
